--- a/PhpProjectVenta/docs/5-september-2017/TrazabilidadVentasActualizacion.xlsx
+++ b/PhpProjectVenta/docs/5-september-2017/TrazabilidadVentasActualizacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>personaid</t>
   </si>
@@ -561,13 +561,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +866,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -883,7 +883,7 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -934,8 +934,8 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>17</v>
@@ -951,8 +951,8 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -999,9 +999,6 @@
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1089,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1117,7 +1114,7 @@
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1171,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1184,7 +1181,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
@@ -1213,14 +1210,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="17" t="s">
